--- a/filter_job.xlsx
+++ b/filter_job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>學位</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>技能</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -466,17 +471,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>醫療器材-助理工程師</t>
+          <t>網路助理工程師★火熱招募中★年終獎金等優厚完善的福利★</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>丹美科技有限公司</t>
+          <t>文德福網絡服務有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>新北市五股區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -486,7 +491,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Windows 98', 'Windows XP', 'Windows 7', 'Windows Server 2008', 'Android', 'iOS', 'Windows 8', 'Windows Server 2012', 'Vmware', 'LAN', 'TCP/IP', 'WAN', 'Excel', 'Ghost', 'PowerPoint', 'Visio', 'Word', 'WLAN']</t>
         </is>
       </c>
     </row>
@@ -496,17 +506,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASP .Net 網路應用程式工程師</t>
+          <t>系統開發部-軟體設計工程師(可培訓)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信諾科技股份有限公司</t>
+          <t>兆銀資訊系統股份有限公司</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>台北市大同區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,26 +527,31 @@
       <c r="F3" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['ASP.NET', 'C#', 'Visual Studio']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>軟體助理工程師</t>
+          <t>Java Engineer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>全葳軟體資訊有限公司</t>
+          <t>雲策數據有限公司</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>新北市林口區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,27 +561,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Java', 'Spring', 'MySQL', 'AWS']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>台灣彩券_系統作業工程師(需輪班)</t>
+          <t>系統開發部-軟體測試工程師(無經驗可)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>台灣彩券股份有限公司</t>
+          <t>兆銀資訊系統股份有限公司</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -577,21 +597,26 @@
       <c r="F5" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>初階 Frontend(前端)工程師</t>
+          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>越世實業股份有限公司</t>
+          <t>KD_科定企業股份有限公司</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -606,37 +631,187 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>大學</t>
+          <t>學歷不拘</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>軟體實習生</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宏思科技有限公司</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>新北市板橋區</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Excel', 'PowerPoint', 'Word', '中文打字20~50', '中文打字50~75', '英文打字20~50', '英文打字50~75']</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>立亨網絡服務有限公司</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>台北市大安區</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Excel']</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>BEAMS 電商專員</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BEAMS_碧慕絲股份有限公司</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>台北市松山區</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>資訊助理</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>第一金證券股份有限公司</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>台北市中山區</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>專科</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AI 大數據科學家</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>昱峰智能大數據科技股份有限公司</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>台北市信義區</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['Linux', 'Github', 'Python']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>微風集團_資訊長期早晚班工讀生(時薪200，歡迎實習生或是日/夜間部學生加入)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>微風廣場實業股份有限公司</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>台北市中正區</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>經歷不拘</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>專科</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['不拘']</t>
         </is>
       </c>
     </row>

--- a/filter_job.xlsx
+++ b/filter_job.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>技能</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>連結</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,7 +501,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['Windows 98', 'Windows XP', 'Windows 7', 'Windows Server 2008', 'Android', 'iOS', 'Windows 8', 'Windows Server 2012', 'Vmware', 'LAN', 'TCP/IP', 'WAN', 'Excel', 'Ghost', 'PowerPoint', 'Visio', 'Word', 'WLAN']</t>
+          <t>Windows 98, Windows XP, Windows 7, Windows Server 2008, Android, iOS, Windows 8, Windows Server 2012, Vmware, LAN, TCP/IP, WAN, Excel, Ghost, PowerPoint, Visio, Word, WLAN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/6kv9h?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -531,27 +541,32 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['ASP.NET', 'C#', 'Visual Studio']</t>
+          <t>ASP.NET, C#, Visual Studio</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/4erby?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Java Engineer</t>
+          <t>後端工程師</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>雲策數據有限公司</t>
+          <t>微做科技股份有限公司</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>台北市內湖區</t>
+          <t>台北市中正區</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,12 +576,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>大學</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['Java', 'Spring', 'MySQL', 'AWS']</t>
+          <t>Git, Java, Spring</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/859nc?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -576,17 +596,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>系統開發部-軟體測試工程師(無經驗可)</t>
+          <t>Java Engineer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兆銀資訊系統股份有限公司</t>
+          <t>雲策數據有限公司</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>新北市中和區</t>
+          <t>台北市內湖區</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -601,27 +621,32 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>Java, Spring, MySQL, AWS</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7w7np?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
+          <t>系統開發部-軟體測試工程師(無經驗可)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>KD_科定企業股份有限公司</t>
+          <t>兆銀資訊系統股份有限公司</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>新北市三重區</t>
+          <t>新北市中和區</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,12 +656,17 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>學歷不拘</t>
+          <t>專科</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/4gpkm?jobsource=index_s</t>
         </is>
       </c>
     </row>
@@ -646,17 +676,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>軟體實習生</t>
+          <t>【KD科定】5/25短期資訊工讀生《時薪400元!!!》(須具資訊相關背景)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>宏思科技有限公司</t>
+          <t>KD_科定企業股份有限公司</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>新北市板橋區</t>
+          <t>新北市三重區</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,32 +696,37 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>專科</t>
+          <t>學歷不拘</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['Excel', 'PowerPoint', 'Word', '中文打字20~50', '中文打字50~75', '英文打字20~50', '英文打字50~75']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8azye?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
+          <t>軟體實習生</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>立亨網絡服務有限公司</t>
+          <t>宏思科技有限公司</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>台北市大安區</t>
+          <t>新北市板橋區</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -706,27 +741,32 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['Excel']</t>
+          <t>Excel, PowerPoint, Word, 中文打字20~50, 中文打字50~75, 英文打字20~50, 英文打字50~75</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/7il4c?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>資訊助理</t>
+          <t>全球客戶服務專員 #朝九晚六#周休二日</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>第一金證券股份有限公司</t>
+          <t>立亨網絡服務有限公司</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>台北市中山區</t>
+          <t>台北市大安區</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -741,27 +781,32 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['不拘']</t>
+          <t>Excel</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8ac52?jobsource=index_s</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>AI 大數據科學家</t>
+          <t>資訊助理</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>昱峰智能大數據科技股份有限公司</t>
+          <t>第一金證券股份有限公司</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>台北市信義區</t>
+          <t>台北市中山區</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -776,42 +821,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['Linux', 'Github', 'Python']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>微風集團_資訊長期早晚班工讀生(時薪200，歡迎實習生或是日/夜間部學生加入)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>微風廣場實業股份有限公司</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>台北市中正區</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>經歷不拘</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>專科</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['不拘']</t>
+          <t>不拘</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.104.com.tw/job/8702t?jobsource=index_s</t>
         </is>
       </c>
     </row>
